--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Pgf-Nrp2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Pgf-Nrp2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,22 +82,22 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Pgf</t>
+  </si>
+  <si>
+    <t>Nrp2</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Pgf</t>
-  </si>
-  <si>
-    <t>Nrp2</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.208963499999999</v>
+        <v>45.2378675</v>
       </c>
       <c r="H2">
-        <v>16.417927</v>
+        <v>90.475735</v>
       </c>
       <c r="I2">
-        <v>0.2898994609319863</v>
+        <v>0.939038360155264</v>
       </c>
       <c r="J2">
-        <v>0.2177550321922232</v>
+        <v>0.932198390111868</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>64.20135099999999</v>
+        <v>39.77812950000001</v>
       </c>
       <c r="N2">
-        <v>128.402702</v>
+        <v>79.55625900000001</v>
       </c>
       <c r="O2">
-        <v>0.4070144914449588</v>
+        <v>0.348003301252607</v>
       </c>
       <c r="P2">
-        <v>0.3181813759721767</v>
+        <v>0.2718884826683037</v>
       </c>
       <c r="Q2">
-        <v>527.0265470096883</v>
+        <v>1799.477751718842</v>
       </c>
       <c r="R2">
-        <v>2108.106188038753</v>
+        <v>7197.911006875366</v>
       </c>
       <c r="S2">
-        <v>0.1179932816614001</v>
+        <v>0.3267884493368665</v>
       </c>
       <c r="T2">
-        <v>0.0692855957677872</v>
+        <v>0.2534540058333513</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.208963499999999</v>
+        <v>45.2378675</v>
       </c>
       <c r="H3">
-        <v>16.417927</v>
+        <v>90.475735</v>
       </c>
       <c r="I3">
-        <v>0.2898994609319863</v>
+        <v>0.939038360155264</v>
       </c>
       <c r="J3">
-        <v>0.2177550321922232</v>
+        <v>0.932198390111868</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>47.27202199999999</v>
       </c>
       <c r="O3">
-        <v>0.09989612209201489</v>
+        <v>0.137854812176675</v>
       </c>
       <c r="P3">
-        <v>0.11713987922892</v>
+        <v>0.1615550868755992</v>
       </c>
       <c r="Q3">
-        <v>129.3514343897323</v>
+        <v>712.8284892310282</v>
       </c>
       <c r="R3">
-        <v>776.1086063383938</v>
+        <v>4276.970935386169</v>
       </c>
       <c r="S3">
-        <v>0.028959831943671</v>
+        <v>0.1294509567658968</v>
       </c>
       <c r="T3">
-        <v>0.02550779817248661</v>
+        <v>0.1506013918998165</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,14 +652,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>27</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
         <v>2</v>
       </c>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.208963499999999</v>
+        <v>45.2378675</v>
       </c>
       <c r="H4">
-        <v>16.417927</v>
+        <v>90.475735</v>
       </c>
       <c r="I4">
-        <v>0.2898994609319863</v>
+        <v>0.939038360155264</v>
       </c>
       <c r="J4">
-        <v>0.2177550321922232</v>
+        <v>0.932198390111868</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>24.57775566666666</v>
+        <v>12.91941666666667</v>
       </c>
       <c r="N4">
-        <v>73.733267</v>
+        <v>38.75825</v>
       </c>
       <c r="O4">
-        <v>0.1558145205313014</v>
+        <v>0.1130269247642213</v>
       </c>
       <c r="P4">
-        <v>0.1827107372630203</v>
+        <v>0.1324587394610747</v>
       </c>
       <c r="Q4">
-        <v>201.7578991795848</v>
+        <v>584.4468593439584</v>
       </c>
       <c r="R4">
-        <v>1210.547395077509</v>
+        <v>3506.68115606375</v>
       </c>
       <c r="S4">
-        <v>0.0451705455074002</v>
+        <v>0.1061366180839868</v>
       </c>
       <c r="T4">
-        <v>0.03978618247457381</v>
+        <v>0.1234778236818612</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.208963499999999</v>
+        <v>45.2378675</v>
       </c>
       <c r="H5">
-        <v>16.417927</v>
+        <v>90.475735</v>
       </c>
       <c r="I5">
-        <v>0.2898994609319863</v>
+        <v>0.939038360155264</v>
       </c>
       <c r="J5">
-        <v>0.2177550321922232</v>
+        <v>0.932198390111868</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.4585215</v>
+        <v>10.527315</v>
       </c>
       <c r="N5">
-        <v>10.917043</v>
+        <v>21.05463</v>
       </c>
       <c r="O5">
-        <v>0.03460514954527786</v>
+        <v>0.09209936262402908</v>
       </c>
       <c r="P5">
-        <v>0.02705238837799083</v>
+        <v>0.07195551268747499</v>
       </c>
       <c r="Q5">
-        <v>44.80880375746524</v>
+        <v>476.2332811007625</v>
       </c>
       <c r="R5">
-        <v>179.235215029861</v>
+        <v>1904.93312440305</v>
       </c>
       <c r="S5">
-        <v>0.01003201419864682</v>
+        <v>0.08648483444981328</v>
       </c>
       <c r="T5">
-        <v>0.005890793702125917</v>
+        <v>0.06707681308693828</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.208963499999999</v>
+        <v>45.2378675</v>
       </c>
       <c r="H6">
-        <v>16.417927</v>
+        <v>90.475735</v>
       </c>
       <c r="I6">
-        <v>0.2898994609319863</v>
+        <v>0.939038360155264</v>
       </c>
       <c r="J6">
-        <v>0.2177550321922232</v>
+        <v>0.932198390111868</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>33.41628466666666</v>
+        <v>8.217959</v>
       </c>
       <c r="N6">
-        <v>100.248854</v>
+        <v>24.653877</v>
       </c>
       <c r="O6">
-        <v>0.2118477555025798</v>
+        <v>0.07189570996691971</v>
       </c>
       <c r="P6">
-        <v>0.2484162545532246</v>
+        <v>0.0842561640489027</v>
       </c>
       <c r="Q6">
-        <v>274.3130611342763</v>
+        <v>371.7629403624325</v>
       </c>
       <c r="R6">
-        <v>1645.878366805658</v>
+        <v>2230.577642174595</v>
       </c>
       <c r="S6">
-        <v>0.06141455011984914</v>
+        <v>0.06751282958953475</v>
       </c>
       <c r="T6">
-        <v>0.05409388950730894</v>
+        <v>0.07854346048338855</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.208963499999999</v>
+        <v>45.2378675</v>
       </c>
       <c r="H7">
-        <v>16.417927</v>
+        <v>90.475735</v>
       </c>
       <c r="I7">
-        <v>0.2898994609319863</v>
+        <v>0.939038360155264</v>
       </c>
       <c r="J7">
-        <v>0.2177550321922232</v>
+        <v>0.932198390111868</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>14.32600733333333</v>
+        <v>27.10372466666666</v>
       </c>
       <c r="N7">
-        <v>42.978022</v>
+        <v>81.31117399999999</v>
       </c>
       <c r="O7">
-        <v>0.09082196088386704</v>
+        <v>0.2371198892155478</v>
       </c>
       <c r="P7">
-        <v>0.1064993646046676</v>
+        <v>0.2778860142586446</v>
       </c>
       <c r="Q7">
-        <v>117.6016713000656</v>
+        <v>1226.114705227148</v>
       </c>
       <c r="R7">
-        <v>705.6100278003938</v>
+        <v>7356.688231362889</v>
       </c>
       <c r="S7">
-        <v>0.026329237501019</v>
+        <v>0.2226646719291659</v>
       </c>
       <c r="T7">
-        <v>0.02319077256794071</v>
+        <v>0.2590448951265121</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -915,16 +915,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.4848029999999999</v>
+        <v>0.484803</v>
       </c>
       <c r="H8">
         <v>1.454409</v>
       </c>
       <c r="I8">
-        <v>0.01712081292092598</v>
+        <v>0.01006344107883407</v>
       </c>
       <c r="J8">
-        <v>0.01929018679493819</v>
+        <v>0.01498520822587638</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>64.20135099999999</v>
+        <v>39.77812950000001</v>
       </c>
       <c r="N8">
-        <v>128.402702</v>
+        <v>79.55625900000001</v>
       </c>
       <c r="O8">
-        <v>0.4070144914449588</v>
+        <v>0.348003301252607</v>
       </c>
       <c r="P8">
-        <v>0.3181813759721767</v>
+        <v>0.2718884826683037</v>
       </c>
       <c r="Q8">
-        <v>31.12500756885299</v>
+        <v>19.28455651598851</v>
       </c>
       <c r="R8">
-        <v>186.750045413118</v>
+        <v>115.707339095931</v>
       </c>
       <c r="S8">
-        <v>0.006968418964134968</v>
+        <v>0.003502110717395352</v>
       </c>
       <c r="T8">
-        <v>0.006137778177173745</v>
+        <v>0.004074305527002113</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -977,16 +977,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.4848029999999999</v>
+        <v>0.484803</v>
       </c>
       <c r="H9">
         <v>1.454409</v>
       </c>
       <c r="I9">
-        <v>0.01712081292092598</v>
+        <v>0.01006344107883407</v>
       </c>
       <c r="J9">
-        <v>0.01929018679493819</v>
+        <v>0.01498520822587638</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>47.27202199999999</v>
       </c>
       <c r="O9">
-        <v>0.09989612209201489</v>
+        <v>0.137854812176675</v>
       </c>
       <c r="P9">
-        <v>0.11713987922892</v>
+        <v>0.1615550868755992</v>
       </c>
       <c r="Q9">
-        <v>7.639206027221998</v>
+        <v>7.639206027221999</v>
       </c>
       <c r="R9">
-        <v>68.75285424499798</v>
+        <v>68.75285424499799</v>
       </c>
       <c r="S9">
-        <v>0.001710302817863368</v>
+        <v>0.001387293779773705</v>
       </c>
       <c r="T9">
-        <v>0.002259650151462367</v>
+        <v>0.002420936616780402</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1039,16 +1039,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.4848029999999999</v>
+        <v>0.484803</v>
       </c>
       <c r="H10">
         <v>1.454409</v>
       </c>
       <c r="I10">
-        <v>0.01712081292092598</v>
+        <v>0.01006344107883407</v>
       </c>
       <c r="J10">
-        <v>0.01929018679493819</v>
+        <v>0.01498520822587638</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>24.57775566666666</v>
+        <v>12.91941666666667</v>
       </c>
       <c r="N10">
-        <v>73.733267</v>
+        <v>38.75825</v>
       </c>
       <c r="O10">
-        <v>0.1558145205313014</v>
+        <v>0.1130269247642213</v>
       </c>
       <c r="P10">
-        <v>0.1827107372630203</v>
+        <v>0.1324587394610747</v>
       </c>
       <c r="Q10">
-        <v>11.915369680467</v>
+        <v>6.263371958250001</v>
       </c>
       <c r="R10">
-        <v>107.238327124203</v>
+        <v>56.37034762425001</v>
       </c>
       <c r="S10">
-        <v>0.002667671256380192</v>
+        <v>0.001137439797686552</v>
       </c>
       <c r="T10">
-        <v>0.003524524251244535</v>
+        <v>0.001984921792161314</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1101,16 +1101,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.4848029999999999</v>
+        <v>0.484803</v>
       </c>
       <c r="H11">
         <v>1.454409</v>
       </c>
       <c r="I11">
-        <v>0.01712081292092598</v>
+        <v>0.01006344107883407</v>
       </c>
       <c r="J11">
-        <v>0.01929018679493819</v>
+        <v>0.01498520822587638</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.4585215</v>
+        <v>10.527315</v>
       </c>
       <c r="N11">
-        <v>10.917043</v>
+        <v>21.05463</v>
       </c>
       <c r="O11">
-        <v>0.03460514954527786</v>
+        <v>0.09209936262402908</v>
       </c>
       <c r="P11">
-        <v>0.02705238837799083</v>
+        <v>0.07195551268747499</v>
       </c>
       <c r="Q11">
-        <v>2.6463075987645</v>
+        <v>5.103673893945</v>
       </c>
       <c r="R11">
-        <v>15.877845592587</v>
+        <v>30.62204336367</v>
       </c>
       <c r="S11">
-        <v>0.000592468291465369</v>
+        <v>0.000926836509165089</v>
       </c>
       <c r="T11">
-        <v>0.000521845625060658</v>
+        <v>0.001078268340621503</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1163,16 +1163,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.4848029999999999</v>
+        <v>0.484803</v>
       </c>
       <c r="H12">
         <v>1.454409</v>
       </c>
       <c r="I12">
-        <v>0.01712081292092598</v>
+        <v>0.01006344107883407</v>
       </c>
       <c r="J12">
-        <v>0.01929018679493819</v>
+        <v>0.01498520822587638</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>33.41628466666666</v>
+        <v>8.217959</v>
       </c>
       <c r="N12">
-        <v>100.248854</v>
+        <v>24.653877</v>
       </c>
       <c r="O12">
-        <v>0.2118477555025798</v>
+        <v>0.07189570996691971</v>
       </c>
       <c r="P12">
-        <v>0.2484162545532246</v>
+        <v>0.0842561640489027</v>
       </c>
       <c r="Q12">
-        <v>16.20031505525399</v>
+        <v>3.984091177077</v>
       </c>
       <c r="R12">
-        <v>145.802835497286</v>
+        <v>35.856820593693</v>
       </c>
       <c r="S12">
-        <v>0.003627005789677737</v>
+        <v>0.0007235182410730396</v>
       </c>
       <c r="T12">
-        <v>0.004791995953230618</v>
+        <v>0.001262596162586407</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1225,16 +1225,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.4848029999999999</v>
+        <v>0.484803</v>
       </c>
       <c r="H13">
         <v>1.454409</v>
       </c>
       <c r="I13">
-        <v>0.01712081292092598</v>
+        <v>0.01006344107883407</v>
       </c>
       <c r="J13">
-        <v>0.01929018679493819</v>
+        <v>0.01498520822587638</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>14.32600733333333</v>
+        <v>27.10372466666666</v>
       </c>
       <c r="N13">
-        <v>42.978022</v>
+        <v>81.31117399999999</v>
       </c>
       <c r="O13">
-        <v>0.09082196088386704</v>
+        <v>0.2371198892155478</v>
       </c>
       <c r="P13">
-        <v>0.1064993646046676</v>
+        <v>0.2778860142586446</v>
       </c>
       <c r="Q13">
-        <v>6.945291333221998</v>
+        <v>13.139967029574</v>
       </c>
       <c r="R13">
-        <v>62.50762199899799</v>
+        <v>118.259703266166</v>
       </c>
       <c r="S13">
-        <v>0.001554945801404345</v>
+        <v>0.002386242033740327</v>
       </c>
       <c r="T13">
-        <v>0.002054392636766266</v>
+        <v>0.004164179786724643</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.05506833333333333</v>
+        <v>2.2298475</v>
       </c>
       <c r="H14">
-        <v>0.165205</v>
+        <v>4.459695</v>
       </c>
       <c r="I14">
-        <v>0.001944737620986653</v>
+        <v>0.04628671631783517</v>
       </c>
       <c r="J14">
-        <v>0.00219115483296498</v>
+        <v>0.04594956315513709</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>64.20135099999999</v>
+        <v>39.77812950000001</v>
       </c>
       <c r="N14">
-        <v>128.402702</v>
+        <v>79.55625900000001</v>
       </c>
       <c r="O14">
-        <v>0.4070144914449588</v>
+        <v>0.348003301252607</v>
       </c>
       <c r="P14">
-        <v>0.3181813759721767</v>
+        <v>0.2718884826683037</v>
       </c>
       <c r="Q14">
-        <v>3.535461397318333</v>
+        <v>88.69916262025126</v>
       </c>
       <c r="R14">
-        <v>21.21276838391</v>
+        <v>354.796650481005</v>
       </c>
       <c r="S14">
-        <v>0.0007915363937997616</v>
+        <v>0.01610793008274955</v>
       </c>
       <c r="T14">
-        <v>0.0006971846597208823</v>
+        <v>0.01249315700552162</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.05506833333333333</v>
+        <v>2.2298475</v>
       </c>
       <c r="H15">
-        <v>0.165205</v>
+        <v>4.459695</v>
       </c>
       <c r="I15">
-        <v>0.001944737620986653</v>
+        <v>0.04628671631783517</v>
       </c>
       <c r="J15">
-        <v>0.00219115483296498</v>
+        <v>0.04594956315513709</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>47.27202199999999</v>
       </c>
       <c r="O15">
-        <v>0.09989612209201489</v>
+        <v>0.137854812176675</v>
       </c>
       <c r="P15">
-        <v>0.11713987922892</v>
+        <v>0.1615550868755992</v>
       </c>
       <c r="Q15">
-        <v>0.8677304882788887</v>
+        <v>35.136466692215</v>
       </c>
       <c r="R15">
-        <v>7.809574394509998</v>
+        <v>210.81880015329</v>
       </c>
       <c r="S15">
-        <v>0.0001942717468230173</v>
+        <v>0.006380846584270203</v>
       </c>
       <c r="T15">
-        <v>0.0002566716125053822</v>
+        <v>0.007423385667424003</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>27</v>
       </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.05506833333333333</v>
+        <v>2.2298475</v>
       </c>
       <c r="H16">
-        <v>0.165205</v>
+        <v>4.459695</v>
       </c>
       <c r="I16">
-        <v>0.001944737620986653</v>
+        <v>0.04628671631783517</v>
       </c>
       <c r="J16">
-        <v>0.00219115483296498</v>
+        <v>0.04594956315513709</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>24.57775566666666</v>
+        <v>12.91941666666667</v>
       </c>
       <c r="N16">
-        <v>73.733267</v>
+        <v>38.75825</v>
       </c>
       <c r="O16">
-        <v>0.1558145205313014</v>
+        <v>0.1130269247642213</v>
       </c>
       <c r="P16">
-        <v>0.1827107372630203</v>
+        <v>0.1324587394610747</v>
       </c>
       <c r="Q16">
-        <v>1.353456041637222</v>
+        <v>28.808328955625</v>
       </c>
       <c r="R16">
-        <v>12.181104374735</v>
+        <v>172.84997373375</v>
       </c>
       <c r="S16">
-        <v>0.0003030183599732192</v>
+        <v>0.00523164520283881</v>
       </c>
       <c r="T16">
-        <v>0.0004003475149884616</v>
+        <v>0.006086421214316503</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.05506833333333333</v>
+        <v>2.2298475</v>
       </c>
       <c r="H17">
-        <v>0.165205</v>
+        <v>4.459695</v>
       </c>
       <c r="I17">
-        <v>0.001944737620986653</v>
+        <v>0.04628671631783517</v>
       </c>
       <c r="J17">
-        <v>0.00219115483296498</v>
+        <v>0.04594956315513709</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.4585215</v>
+        <v>10.527315</v>
       </c>
       <c r="N17">
-        <v>10.917043</v>
+        <v>21.05463</v>
       </c>
       <c r="O17">
-        <v>0.03460514954527786</v>
+        <v>0.09209936262402908</v>
       </c>
       <c r="P17">
-        <v>0.02705238837799083</v>
+        <v>0.07195551268747499</v>
       </c>
       <c r="Q17">
-        <v>0.3005916814691666</v>
+        <v>23.4743070344625</v>
       </c>
       <c r="R17">
-        <v>1.803550088815</v>
+        <v>93.89722813784999</v>
       </c>
       <c r="S17">
-        <v>6.729793620057102E-05</v>
+        <v>0.004262977070831865</v>
       </c>
       <c r="T17">
-        <v>5.927597153768026E-05</v>
+        <v>0.0033063243745934</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.05506833333333333</v>
+        <v>2.2298475</v>
       </c>
       <c r="H18">
-        <v>0.165205</v>
+        <v>4.459695</v>
       </c>
       <c r="I18">
-        <v>0.001944737620986653</v>
+        <v>0.04628671631783517</v>
       </c>
       <c r="J18">
-        <v>0.00219115483296498</v>
+        <v>0.04594956315513709</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>33.41628466666666</v>
+        <v>8.217959</v>
       </c>
       <c r="N18">
-        <v>100.248854</v>
+        <v>24.653877</v>
       </c>
       <c r="O18">
-        <v>0.2118477555025798</v>
+        <v>0.07189570996691971</v>
       </c>
       <c r="P18">
-        <v>0.2484162545532246</v>
+        <v>0.0842561640489027</v>
       </c>
       <c r="Q18">
-        <v>1.840179102785555</v>
+        <v>18.3247953312525</v>
       </c>
       <c r="R18">
-        <v>16.56161192507</v>
+        <v>109.948771987515</v>
       </c>
       <c r="S18">
-        <v>0.0004119883000474492</v>
+        <v>0.003327816331708167</v>
       </c>
       <c r="T18">
-        <v>0.0005443184767513569</v>
+        <v>0.003871533931174646</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.05506833333333333</v>
+        <v>2.2298475</v>
       </c>
       <c r="H19">
-        <v>0.165205</v>
+        <v>4.459695</v>
       </c>
       <c r="I19">
-        <v>0.001944737620986653</v>
+        <v>0.04628671631783517</v>
       </c>
       <c r="J19">
-        <v>0.00219115483296498</v>
+        <v>0.04594956315513709</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>14.32600733333333</v>
+        <v>27.10372466666666</v>
       </c>
       <c r="N19">
-        <v>42.978022</v>
+        <v>81.31117399999999</v>
       </c>
       <c r="O19">
-        <v>0.09082196088386704</v>
+        <v>0.2371198892155478</v>
       </c>
       <c r="P19">
-        <v>0.1064993646046676</v>
+        <v>0.2778860142586446</v>
       </c>
       <c r="Q19">
-        <v>0.7889093471677776</v>
+        <v>60.437172688655</v>
       </c>
       <c r="R19">
-        <v>7.100184124509999</v>
+        <v>362.62303613193</v>
       </c>
       <c r="S19">
-        <v>0.0001766248841426344</v>
+        <v>0.01097550104543656</v>
       </c>
       <c r="T19">
-        <v>0.0002333565974612169</v>
+        <v>0.01276874096210692</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>1.3444845</v>
+        <v>0.1422643333333333</v>
       </c>
       <c r="H20">
-        <v>2.688969</v>
+        <v>0.426793</v>
       </c>
       <c r="I20">
-        <v>0.04748045618443927</v>
+        <v>0.002953093805359308</v>
       </c>
       <c r="J20">
-        <v>0.0356644618506886</v>
+        <v>0.004397375136118147</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>64.20135099999999</v>
+        <v>39.77812950000001</v>
       </c>
       <c r="N20">
-        <v>128.402702</v>
+        <v>79.55625900000001</v>
       </c>
       <c r="O20">
-        <v>0.4070144914449588</v>
+        <v>0.348003301252607</v>
       </c>
       <c r="P20">
-        <v>0.3181813759721767</v>
+        <v>0.2718884826683037</v>
       </c>
       <c r="Q20">
-        <v>86.31772129855949</v>
+        <v>5.659009074564501</v>
       </c>
       <c r="R20">
-        <v>345.270885194238</v>
+        <v>33.954054447387</v>
       </c>
       <c r="S20">
-        <v>0.0193252337274842</v>
+        <v>0.001027686393173663</v>
       </c>
       <c r="T20">
-        <v>0.0113477675449593</v>
+        <v>0.001195595653482489</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>1.3444845</v>
+        <v>0.1422643333333333</v>
       </c>
       <c r="H21">
-        <v>2.688969</v>
+        <v>0.426793</v>
       </c>
       <c r="I21">
-        <v>0.04748045618443927</v>
+        <v>0.002953093805359308</v>
       </c>
       <c r="J21">
-        <v>0.0356644618506886</v>
+        <v>0.004397375136118147</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>47.27202199999999</v>
       </c>
       <c r="O21">
-        <v>0.09989612209201489</v>
+        <v>0.137854812176675</v>
       </c>
       <c r="P21">
-        <v>0.11713987922892</v>
+        <v>0.1615550868755992</v>
       </c>
       <c r="Q21">
-        <v>21.185500287553</v>
+        <v>2.241707565049555</v>
       </c>
       <c r="R21">
-        <v>127.113001725318</v>
+        <v>20.175368085446</v>
       </c>
       <c r="S21">
-        <v>0.004743113447985308</v>
+        <v>0.0004070981918779098</v>
       </c>
       <c r="T21">
-        <v>0.004177730753954088</v>
+        <v>0.000710418322140167</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,31 +1768,31 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
         <v>27</v>
       </c>
-      <c r="D22" t="s">
-        <v>22</v>
-      </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>1.3444845</v>
+        <v>0.1422643333333333</v>
       </c>
       <c r="H22">
-        <v>2.688969</v>
+        <v>0.426793</v>
       </c>
       <c r="I22">
-        <v>0.04748045618443927</v>
+        <v>0.002953093805359308</v>
       </c>
       <c r="J22">
-        <v>0.0356644618506886</v>
+        <v>0.004397375136118147</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>24.57775566666666</v>
+        <v>12.91941666666667</v>
       </c>
       <c r="N22">
-        <v>73.733267</v>
+        <v>38.75825</v>
       </c>
       <c r="O22">
-        <v>0.1558145205313014</v>
+        <v>0.1130269247642213</v>
       </c>
       <c r="P22">
-        <v>0.1827107372630203</v>
+        <v>0.1324587394610747</v>
       </c>
       <c r="Q22">
-        <v>33.0444115386205</v>
+        <v>1.837972199138889</v>
       </c>
       <c r="R22">
-        <v>198.266469231723</v>
+        <v>16.54174979225</v>
       </c>
       <c r="S22">
-        <v>0.007398144514985871</v>
+        <v>0.0003337791113600346</v>
       </c>
       <c r="T22">
-        <v>0.006516280118828175</v>
+        <v>0.0005824707674676817</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>1.3444845</v>
+        <v>0.1422643333333333</v>
       </c>
       <c r="H23">
-        <v>2.688969</v>
+        <v>0.426793</v>
       </c>
       <c r="I23">
-        <v>0.04748045618443927</v>
+        <v>0.002953093805359308</v>
       </c>
       <c r="J23">
-        <v>0.0356644618506886</v>
+        <v>0.004397375136118147</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>5.4585215</v>
+        <v>10.527315</v>
       </c>
       <c r="N23">
-        <v>10.917043</v>
+        <v>21.05463</v>
       </c>
       <c r="O23">
-        <v>0.03460514954527786</v>
+        <v>0.09209936262402908</v>
       </c>
       <c r="P23">
-        <v>0.02705238837799083</v>
+        <v>0.07195551268747499</v>
       </c>
       <c r="Q23">
-        <v>7.338897549666751</v>
+        <v>1.497661450265</v>
       </c>
       <c r="R23">
-        <v>29.355590198667</v>
+        <v>8.98596870159</v>
       </c>
       <c r="S23">
-        <v>0.001643068286740534</v>
+        <v>0.0002719780572425609</v>
       </c>
       <c r="T23">
-        <v>0.0009648088732768654</v>
+        <v>0.0003164153823985364</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>1.3444845</v>
+        <v>0.1422643333333333</v>
       </c>
       <c r="H24">
-        <v>2.688969</v>
+        <v>0.426793</v>
       </c>
       <c r="I24">
-        <v>0.04748045618443927</v>
+        <v>0.002953093805359308</v>
       </c>
       <c r="J24">
-        <v>0.0356644618506886</v>
+        <v>0.004397375136118147</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>33.41628466666666</v>
+        <v>8.217959</v>
       </c>
       <c r="N24">
-        <v>100.248854</v>
+        <v>24.653877</v>
       </c>
       <c r="O24">
-        <v>0.2118477555025798</v>
+        <v>0.07189570996691971</v>
       </c>
       <c r="P24">
-        <v>0.2484162545532246</v>
+        <v>0.0842561640489027</v>
       </c>
       <c r="Q24">
-        <v>44.92767678192099</v>
+        <v>1.169122458495667</v>
       </c>
       <c r="R24">
-        <v>269.566060691526</v>
+        <v>10.522102126461</v>
       </c>
       <c r="S24">
-        <v>0.01005862807291204</v>
+        <v>0.0002123147757352201</v>
       </c>
       <c r="T24">
-        <v>0.008859632033604427</v>
+        <v>0.0003705059608533364</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,31 +1954,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>1.3444845</v>
+        <v>0.1422643333333333</v>
       </c>
       <c r="H25">
-        <v>2.688969</v>
+        <v>0.426793</v>
       </c>
       <c r="I25">
-        <v>0.04748045618443927</v>
+        <v>0.002953093805359308</v>
       </c>
       <c r="J25">
-        <v>0.0356644618506886</v>
+        <v>0.004397375136118147</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>14.32600733333333</v>
+        <v>27.10372466666666</v>
       </c>
       <c r="N25">
-        <v>42.978022</v>
+        <v>81.31117399999999</v>
       </c>
       <c r="O25">
-        <v>0.09082196088386704</v>
+        <v>0.2371198892155478</v>
       </c>
       <c r="P25">
-        <v>0.1064993646046676</v>
+        <v>0.2778860142586446</v>
       </c>
       <c r="Q25">
-        <v>19.261094806553</v>
+        <v>3.855893320553555</v>
       </c>
       <c r="R25">
-        <v>115.566568839318</v>
+        <v>34.703039884982</v>
       </c>
       <c r="S25">
-        <v>0.004312268134331306</v>
+        <v>0.0007002372759699197</v>
       </c>
       <c r="T25">
-        <v>0.003798242526065743</v>
+        <v>0.001221969049775937</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,31 +2016,31 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>18.03007966666667</v>
+        <v>0.07989233333333333</v>
       </c>
       <c r="H26">
-        <v>54.090239</v>
+        <v>0.239677</v>
       </c>
       <c r="I26">
-        <v>0.6367320765803667</v>
+        <v>0.001658388642707596</v>
       </c>
       <c r="J26">
-        <v>0.7174122369243113</v>
+        <v>0.002469463371000436</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>64.20135099999999</v>
+        <v>39.77812950000001</v>
       </c>
       <c r="N26">
-        <v>128.402702</v>
+        <v>79.55625900000001</v>
       </c>
       <c r="O26">
-        <v>0.4070144914449588</v>
+        <v>0.348003301252607</v>
       </c>
       <c r="P26">
-        <v>0.3181813759721767</v>
+        <v>0.2718884826683037</v>
       </c>
       <c r="Q26">
-        <v>1157.555473237629</v>
+        <v>3.1779675813905</v>
       </c>
       <c r="R26">
-        <v>6945.332839425776</v>
+        <v>19.067805488343</v>
       </c>
       <c r="S26">
-        <v>0.2591591823360505</v>
+        <v>0.0005771247224220736</v>
       </c>
       <c r="T26">
-        <v>0.2282672126838546</v>
+        <v>0.0006714186489462631</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,31 +2078,31 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>18.03007966666667</v>
+        <v>0.07989233333333333</v>
       </c>
       <c r="H27">
-        <v>54.090239</v>
+        <v>0.239677</v>
       </c>
       <c r="I27">
-        <v>0.6367320765803667</v>
+        <v>0.001658388642707596</v>
       </c>
       <c r="J27">
-        <v>0.7174122369243113</v>
+        <v>0.002469463371000436</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>47.27202199999999</v>
       </c>
       <c r="O27">
-        <v>0.09989612209201489</v>
+        <v>0.137854812176675</v>
       </c>
       <c r="P27">
-        <v>0.11713987922892</v>
+        <v>0.1615550868755992</v>
       </c>
       <c r="Q27">
-        <v>284.1061075548064</v>
+        <v>1.258890712988222</v>
       </c>
       <c r="R27">
-        <v>2556.954967993257</v>
+        <v>11.330016416894</v>
       </c>
       <c r="S27">
-        <v>0.06360706526197449</v>
+        <v>0.0002286168548563866</v>
       </c>
       <c r="T27">
-        <v>0.08403758279066317</v>
+        <v>0.0003989543694380855</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,31 +2140,31 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
         <v>27</v>
       </c>
-      <c r="D28" t="s">
-        <v>22</v>
-      </c>
       <c r="E28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>18.03007966666667</v>
+        <v>0.07989233333333333</v>
       </c>
       <c r="H28">
-        <v>54.090239</v>
+        <v>0.239677</v>
       </c>
       <c r="I28">
-        <v>0.6367320765803667</v>
+        <v>0.001658388642707596</v>
       </c>
       <c r="J28">
-        <v>0.7174122369243113</v>
+        <v>0.002469463371000436</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>24.57775566666666</v>
+        <v>12.91941666666667</v>
       </c>
       <c r="N28">
-        <v>73.733267</v>
+        <v>38.75825</v>
       </c>
       <c r="O28">
-        <v>0.1558145205313014</v>
+        <v>0.1130269247642213</v>
       </c>
       <c r="P28">
-        <v>0.1827107372630203</v>
+        <v>0.1324587394610747</v>
       </c>
       <c r="Q28">
-        <v>443.1388926978681</v>
+        <v>1.032162342805556</v>
       </c>
       <c r="R28">
-        <v>3988.250034280813</v>
+        <v>9.28946108525</v>
       </c>
       <c r="S28">
-        <v>0.09921210321926974</v>
+        <v>0.0001874425683491506</v>
       </c>
       <c r="T28">
-        <v>0.1310789187299535</v>
+        <v>0.0003271020052680141</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,31 +2202,31 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>18.03007966666667</v>
+        <v>0.07989233333333333</v>
       </c>
       <c r="H29">
-        <v>54.090239</v>
+        <v>0.239677</v>
       </c>
       <c r="I29">
-        <v>0.6367320765803667</v>
+        <v>0.001658388642707596</v>
       </c>
       <c r="J29">
-        <v>0.7174122369243113</v>
+        <v>0.002469463371000436</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>5.4585215</v>
+        <v>10.527315</v>
       </c>
       <c r="N29">
-        <v>10.917043</v>
+        <v>21.05463</v>
       </c>
       <c r="O29">
-        <v>0.03460514954527786</v>
+        <v>0.09209936262402908</v>
       </c>
       <c r="P29">
-        <v>0.02705238837799083</v>
+        <v>0.07195551268747499</v>
       </c>
       <c r="Q29">
-        <v>98.41757750721283</v>
+        <v>0.841051759085</v>
       </c>
       <c r="R29">
-        <v>590.5054650432769</v>
+        <v>5.04631055451</v>
       </c>
       <c r="S29">
-        <v>0.0220342087303389</v>
+        <v>0.0001527365369762983</v>
       </c>
       <c r="T29">
-        <v>0.01940771446039964</v>
+        <v>0.0001776915029232767</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,31 +2264,31 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>18.03007966666667</v>
+        <v>0.07989233333333333</v>
       </c>
       <c r="H30">
-        <v>54.090239</v>
+        <v>0.239677</v>
       </c>
       <c r="I30">
-        <v>0.6367320765803667</v>
+        <v>0.001658388642707596</v>
       </c>
       <c r="J30">
-        <v>0.7174122369243113</v>
+        <v>0.002469463371000436</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>33.41628466666666</v>
+        <v>8.217959</v>
       </c>
       <c r="N30">
-        <v>100.248854</v>
+        <v>24.653877</v>
       </c>
       <c r="O30">
-        <v>0.2118477555025798</v>
+        <v>0.07189570996691971</v>
       </c>
       <c r="P30">
-        <v>0.2484162545532246</v>
+        <v>0.0842561640489027</v>
       </c>
       <c r="Q30">
-        <v>602.4982747040117</v>
+        <v>0.6565519197476667</v>
       </c>
       <c r="R30">
-        <v>5422.484472336106</v>
+        <v>5.908967277729</v>
       </c>
       <c r="S30">
-        <v>0.1348902612800475</v>
+        <v>0.000119231028868539</v>
       </c>
       <c r="T30">
-        <v>0.178216860867388</v>
+        <v>0.000208067510899769</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,31 +2326,31 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G31">
-        <v>18.03007966666667</v>
+        <v>0.07989233333333333</v>
       </c>
       <c r="H31">
-        <v>54.090239</v>
+        <v>0.239677</v>
       </c>
       <c r="I31">
-        <v>0.6367320765803667</v>
+        <v>0.001658388642707596</v>
       </c>
       <c r="J31">
-        <v>0.7174122369243113</v>
+        <v>0.002469463371000436</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,400 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>14.32600733333333</v>
+        <v>27.10372466666666</v>
       </c>
       <c r="N31">
-        <v>42.978022</v>
+        <v>81.31117399999999</v>
       </c>
       <c r="O31">
-        <v>0.09082196088386704</v>
+        <v>0.2371198892155478</v>
       </c>
       <c r="P31">
-        <v>0.1064993646046676</v>
+        <v>0.2778860142586446</v>
       </c>
       <c r="Q31">
-        <v>258.2990535252508</v>
+        <v>2.165379805644222</v>
       </c>
       <c r="R31">
-        <v>2324.691481727258</v>
+        <v>19.488418250798</v>
       </c>
       <c r="S31">
-        <v>0.05782925575268549</v>
+        <v>0.0003932369312351479</v>
       </c>
       <c r="T31">
-        <v>0.0764039473920524</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>2</v>
-      </c>
-      <c r="F32">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G32">
-        <v>0.1931886666666667</v>
-      </c>
-      <c r="H32">
-        <v>0.579566</v>
-      </c>
-      <c r="I32">
-        <v>0.006822455761295062</v>
-      </c>
-      <c r="J32">
-        <v>0.007686927404873834</v>
-      </c>
-      <c r="K32">
-        <v>2</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>64.20135099999999</v>
-      </c>
-      <c r="N32">
-        <v>128.402702</v>
-      </c>
-      <c r="O32">
-        <v>0.4070144914449588</v>
-      </c>
-      <c r="P32">
-        <v>0.3181813759721767</v>
-      </c>
-      <c r="Q32">
-        <v>12.40297339788867</v>
-      </c>
-      <c r="R32">
-        <v>74.41784038733199</v>
-      </c>
-      <c r="S32">
-        <v>0.002776838362089239</v>
-      </c>
-      <c r="T32">
-        <v>0.00244583713868099</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>2</v>
-      </c>
-      <c r="F33">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G33">
-        <v>0.1931886666666667</v>
-      </c>
-      <c r="H33">
-        <v>0.579566</v>
-      </c>
-      <c r="I33">
-        <v>0.006822455761295062</v>
-      </c>
-      <c r="J33">
-        <v>0.007686927404873834</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>15.75734066666666</v>
-      </c>
-      <c r="N33">
-        <v>47.27202199999999</v>
-      </c>
-      <c r="O33">
-        <v>0.09989612209201489</v>
-      </c>
-      <c r="P33">
-        <v>0.11713987922892</v>
-      </c>
-      <c r="Q33">
-        <v>3.044139633605778</v>
-      </c>
-      <c r="R33">
-        <v>27.397256702452</v>
-      </c>
-      <c r="S33">
-        <v>0.0006815368736977018</v>
-      </c>
-      <c r="T33">
-        <v>0.0009004457478483964</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>2</v>
-      </c>
-      <c r="F34">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G34">
-        <v>0.1931886666666667</v>
-      </c>
-      <c r="H34">
-        <v>0.579566</v>
-      </c>
-      <c r="I34">
-        <v>0.006822455761295062</v>
-      </c>
-      <c r="J34">
-        <v>0.007686927404873834</v>
-      </c>
-      <c r="K34">
-        <v>3</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="M34">
-        <v>24.57775566666666</v>
-      </c>
-      <c r="N34">
-        <v>73.733267</v>
-      </c>
-      <c r="O34">
-        <v>0.1558145205313014</v>
-      </c>
-      <c r="P34">
-        <v>0.1827107372630203</v>
-      </c>
-      <c r="Q34">
-        <v>4.748143846902444</v>
-      </c>
-      <c r="R34">
-        <v>42.733294622122</v>
-      </c>
-      <c r="S34">
-        <v>0.001063037673292205</v>
-      </c>
-      <c r="T34">
-        <v>0.001404484173431813</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>2</v>
-      </c>
-      <c r="F35">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G35">
-        <v>0.1931886666666667</v>
-      </c>
-      <c r="H35">
-        <v>0.579566</v>
-      </c>
-      <c r="I35">
-        <v>0.006822455761295062</v>
-      </c>
-      <c r="J35">
-        <v>0.007686927404873834</v>
-      </c>
-      <c r="K35">
-        <v>2</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>5.4585215</v>
-      </c>
-      <c r="N35">
-        <v>10.917043</v>
-      </c>
-      <c r="O35">
-        <v>0.03460514954527786</v>
-      </c>
-      <c r="P35">
-        <v>0.02705238837799083</v>
-      </c>
-      <c r="Q35">
-        <v>1.054524490556333</v>
-      </c>
-      <c r="R35">
-        <v>6.327146943338</v>
-      </c>
-      <c r="S35">
-        <v>0.0002360921018856581</v>
-      </c>
-      <c r="T35">
-        <v>0.0002079497455900681</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>2</v>
-      </c>
-      <c r="F36">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G36">
-        <v>0.1931886666666667</v>
-      </c>
-      <c r="H36">
-        <v>0.579566</v>
-      </c>
-      <c r="I36">
-        <v>0.006822455761295062</v>
-      </c>
-      <c r="J36">
-        <v>0.007686927404873834</v>
-      </c>
-      <c r="K36">
-        <v>3</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>33.41628466666666</v>
-      </c>
-      <c r="N36">
-        <v>100.248854</v>
-      </c>
-      <c r="O36">
-        <v>0.2118477555025798</v>
-      </c>
-      <c r="P36">
-        <v>0.2484162545532246</v>
-      </c>
-      <c r="Q36">
-        <v>6.45564747970711</v>
-      </c>
-      <c r="R36">
-        <v>58.100827317364</v>
-      </c>
-      <c r="S36">
-        <v>0.001445321940046003</v>
-      </c>
-      <c r="T36">
-        <v>0.001909557714941297</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>2</v>
-      </c>
-      <c r="F37">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G37">
-        <v>0.1931886666666667</v>
-      </c>
-      <c r="H37">
-        <v>0.579566</v>
-      </c>
-      <c r="I37">
-        <v>0.006822455761295062</v>
-      </c>
-      <c r="J37">
-        <v>0.007686927404873834</v>
-      </c>
-      <c r="K37">
-        <v>3</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <v>14.32600733333333</v>
-      </c>
-      <c r="N37">
-        <v>42.978022</v>
-      </c>
-      <c r="O37">
-        <v>0.09082196088386704</v>
-      </c>
-      <c r="P37">
-        <v>0.1064993646046676</v>
-      </c>
-      <c r="Q37">
-        <v>2.767622255383555</v>
-      </c>
-      <c r="R37">
-        <v>24.908600298452</v>
-      </c>
-      <c r="S37">
-        <v>0.0006196288102842534</v>
-      </c>
-      <c r="T37">
-        <v>0.0008186528843812697</v>
+        <v>0.0006862293335250279</v>
       </c>
     </row>
   </sheetData>
